--- a/src/output/results9.xlsx
+++ b/src/output/results9.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5111.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1226.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5177.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1189.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4441.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1400.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4089.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1907.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3838.0</v>
+        <v>1.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2035.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3571.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1778.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3290.0</v>
+        <v>8.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1762.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3107.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1647.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3028.0</v>
+        <v>24.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1492.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2940.0</v>
+        <v>36.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1484.0</v>
+        <v>36.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2735.0</v>
+        <v>50.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1403.0</v>
+        <v>49.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2827.0</v>
+        <v>59.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1279.0</v>
+        <v>58.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2674.0</v>
+        <v>68.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1228.0</v>
+        <v>67.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2682.0</v>
+        <v>80.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1290.0</v>
+        <v>77.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2635.0</v>
+        <v>106.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1245.0</v>
+        <v>101.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2697.0</v>
+        <v>125.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1232.0</v>
+        <v>117.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2641.0</v>
+        <v>156.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1130.0</v>
+        <v>144.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2736.0</v>
+        <v>196.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1127.0</v>
+        <v>181.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2637.0</v>
+        <v>241.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1135.0</v>
+        <v>219.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>22.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2682.0</v>
+        <v>289.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1113.0</v>
+        <v>263.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2615.0</v>
+        <v>345.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1145.0</v>
+        <v>312.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2575.0</v>
+        <v>407.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1162.0</v>
+        <v>363.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>44.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2590.0</v>
+        <v>492.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1062.0</v>
+        <v>430.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>61.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2545.0</v>
+        <v>549.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1110.0</v>
+        <v>468.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2538.0</v>
+        <v>613.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1122.0</v>
+        <v>517.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>95.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2496.0</v>
+        <v>687.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1080.0</v>
+        <v>570.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>116.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2550.0</v>
+        <v>758.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1067.0</v>
+        <v>616.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>141.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2559.0</v>
+        <v>830.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1066.0</v>
+        <v>658.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2514.0</v>
+        <v>919.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1059.0</v>
+        <v>720.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2522.0</v>
+        <v>1015.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1031.0</v>
+        <v>776.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>236.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2502.0</v>
+        <v>1092.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1057.0</v>
+        <v>804.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>285.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3254.0</v>
+        <v>1180.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1043.0</v>
+        <v>837.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>340.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3115.0</v>
+        <v>1266.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1079.0</v>
+        <v>886.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>376.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3046.0</v>
+        <v>1364.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1180.0</v>
+        <v>931.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>428.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3142.0</v>
+        <v>1482.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1261.0</v>
+        <v>978.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>498.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4182.0</v>
+        <v>1587.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1261.0</v>
+        <v>1016.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>563.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4181.0</v>
+        <v>1711.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1296.0</v>
+        <v>1083.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>620.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4606.0</v>
+        <v>1831.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1531.0</v>
+        <v>1141.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>681.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5160.0</v>
+        <v>1957.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1755.0</v>
+        <v>1199.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>747.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5787.0</v>
+        <v>2111.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1836.0</v>
+        <v>1270.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>830.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5199.0</v>
+        <v>2281.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2055.0</v>
+        <v>1362.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>907.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4991.0</v>
+        <v>2452.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2343.0</v>
+        <v>1453.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>985.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6899.0</v>
+        <v>2649.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2415.0</v>
+        <v>1566.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1069.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6620.0</v>
+        <v>2878.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2426.0</v>
+        <v>1690.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>229.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1174.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7061.0</v>
+        <v>3143.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2580.0</v>
+        <v>1856.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1272.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7889.0</v>
+        <v>3405.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2917.0</v>
+        <v>2022.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1368.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8424.0</v>
+        <v>3707.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2958.0</v>
+        <v>2220.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1470.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7551.0</v>
+        <v>4028.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3180.0</v>
+        <v>2409.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1601.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7120.0</v>
+        <v>4393.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3463.0</v>
+        <v>2652.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1721.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9946.0</v>
+        <v>4784.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3572.0</v>
+        <v>2892.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>391.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1871.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9050.0</v>
+        <v>5266.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3578.0</v>
+        <v>3228.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>482.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2016.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9572.0</v>
+        <v>5802.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3697.0</v>
+        <v>3589.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>536.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2190.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10647.0</v>
+        <v>6360.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4078.0</v>
+        <v>3961.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>558.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2372.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11045.0</v>
+        <v>6926.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4094.0</v>
+        <v>4325.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>566.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2569.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9871.0</v>
+        <v>7541.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4386.0</v>
+        <v>4715.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>615.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2789.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9081.0</v>
+        <v>8250.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4692.0</v>
+        <v>5193.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>709.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3014.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12900.0</v>
+        <v>8933.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4785.0</v>
+        <v>5580.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>683.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3303.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11540.0</v>
+        <v>9743.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4744.0</v>
+        <v>6089.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>810.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3600.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12036.0</v>
+        <v>10552.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4782.0</v>
+        <v>6551.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3940.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13346.0</v>
+        <v>11488.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5273.0</v>
+        <v>7122.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4302.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13830.0</v>
+        <v>12473.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5416.0</v>
+        <v>7730.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>985.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4673.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>12293.0</v>
+        <v>13582.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5403.0</v>
+        <v>8393.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5109.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results9.xlsx
+++ b/src/output/results9.xlsx
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>92.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>92.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>104.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>118.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>118.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.0</v>
+        <v>127.0</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0</v>
+        <v>127.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,920 +482,920 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.0</v>
+        <v>137.0</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>136.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>26.0</v>
+        <v>148.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>147.0</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32.0</v>
+        <v>159.0</v>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>157.0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.0</v>
+        <v>173.0</v>
       </c>
       <c r="B12" t="n">
-        <v>38.0</v>
+        <v>169.0</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>48.0</v>
+        <v>192.0</v>
       </c>
       <c r="B13" t="n">
-        <v>48.0</v>
+        <v>185.0</v>
       </c>
       <c r="C13" t="n">
-        <v>10.0</v>
+        <v>19.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>58.0</v>
+        <v>208.0</v>
       </c>
       <c r="B14" t="n">
-        <v>55.0</v>
+        <v>199.0</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>72.0</v>
+        <v>227.0</v>
       </c>
       <c r="B15" t="n">
-        <v>68.0</v>
+        <v>214.0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89.0</v>
+        <v>245.0</v>
       </c>
       <c r="B16" t="n">
-        <v>83.0</v>
+        <v>228.0</v>
       </c>
       <c r="C16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
         <v>17.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106.0</v>
+        <v>270.0</v>
       </c>
       <c r="B17" t="n">
-        <v>96.0</v>
+        <v>250.0</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>119.0</v>
+        <v>290.0</v>
       </c>
       <c r="B18" t="n">
-        <v>105.0</v>
+        <v>263.0</v>
       </c>
       <c r="C18" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>129.0</v>
+        <v>324.0</v>
       </c>
       <c r="B19" t="n">
-        <v>106.0</v>
+        <v>287.0</v>
       </c>
       <c r="C19" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>147.0</v>
+        <v>353.0</v>
       </c>
       <c r="B20" t="n">
-        <v>120.0</v>
+        <v>307.0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="D20" t="n">
         <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>170.0</v>
+        <v>390.0</v>
       </c>
       <c r="B21" t="n">
-        <v>137.0</v>
+        <v>333.0</v>
       </c>
       <c r="C21" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>33.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>193.0</v>
+        <v>419.0</v>
       </c>
       <c r="B22" t="n">
-        <v>155.0</v>
+        <v>351.0</v>
       </c>
       <c r="C22" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>38.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>220.0</v>
+        <v>461.0</v>
       </c>
       <c r="B23" t="n">
-        <v>176.0</v>
+        <v>386.0</v>
       </c>
       <c r="C23" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>44.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>247.0</v>
+        <v>514.0</v>
       </c>
       <c r="B24" t="n">
-        <v>199.0</v>
+        <v>422.0</v>
       </c>
       <c r="C24" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E24" t="n">
-        <v>48.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>278.0</v>
+        <v>563.0</v>
       </c>
       <c r="B25" t="n">
-        <v>225.0</v>
+        <v>455.0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.0</v>
+        <v>49.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" t="n">
-        <v>53.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>314.0</v>
+        <v>614.0</v>
       </c>
       <c r="B26" t="n">
-        <v>251.0</v>
+        <v>486.0</v>
       </c>
       <c r="C26" t="n">
-        <v>36.0</v>
+        <v>51.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>63.0</v>
+        <v>124.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>347.0</v>
+        <v>655.0</v>
       </c>
       <c r="B27" t="n">
-        <v>278.0</v>
+        <v>511.0</v>
       </c>
       <c r="C27" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E27" t="n">
-        <v>69.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>391.0</v>
+        <v>712.0</v>
       </c>
       <c r="B28" t="n">
-        <v>313.0</v>
+        <v>545.0</v>
       </c>
       <c r="C28" t="n">
-        <v>44.0</v>
+        <v>57.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E28" t="n">
-        <v>78.0</v>
+        <v>162.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>442.0</v>
+        <v>770.0</v>
       </c>
       <c r="B29" t="n">
-        <v>342.0</v>
+        <v>585.0</v>
       </c>
       <c r="C29" t="n">
-        <v>51.0</v>
+        <v>58.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n">
-        <v>100.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>482.0</v>
+        <v>846.0</v>
       </c>
       <c r="B30" t="n">
-        <v>358.0</v>
+        <v>638.0</v>
       </c>
       <c r="C30" t="n">
-        <v>40.0</v>
+        <v>76.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="E30" t="n">
-        <v>124.0</v>
+        <v>203.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>525.0</v>
+        <v>906.0</v>
       </c>
       <c r="B31" t="n">
-        <v>375.0</v>
+        <v>677.0</v>
       </c>
       <c r="C31" t="n">
-        <v>43.0</v>
+        <v>60.0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="E31" t="n">
-        <v>149.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>583.0</v>
+        <v>966.0</v>
       </c>
       <c r="B32" t="n">
-        <v>416.0</v>
+        <v>706.0</v>
       </c>
       <c r="C32" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E32" t="n">
-        <v>165.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>643.0</v>
+        <v>1047.0</v>
       </c>
       <c r="B33" t="n">
-        <v>450.0</v>
+        <v>749.0</v>
       </c>
       <c r="C33" t="n">
-        <v>60.0</v>
+        <v>81.0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E33" t="n">
-        <v>191.0</v>
+        <v>292.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>707.0</v>
+        <v>1121.0</v>
       </c>
       <c r="B34" t="n">
-        <v>497.0</v>
+        <v>780.0</v>
       </c>
       <c r="C34" t="n">
-        <v>64.0</v>
+        <v>74.0</v>
       </c>
       <c r="D34" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E34" t="n">
-        <v>208.0</v>
+        <v>335.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>792.0</v>
+        <v>1225.0</v>
       </c>
       <c r="B35" t="n">
-        <v>558.0</v>
+        <v>853.0</v>
       </c>
       <c r="C35" t="n">
-        <v>85.0</v>
+        <v>104.0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="E35" t="n">
-        <v>232.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>887.0</v>
+        <v>1327.0</v>
       </c>
       <c r="B36" t="n">
-        <v>620.0</v>
+        <v>919.0</v>
       </c>
       <c r="C36" t="n">
-        <v>95.0</v>
+        <v>102.0</v>
       </c>
       <c r="D36" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="E36" t="n">
-        <v>265.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>989.0</v>
+        <v>1448.0</v>
       </c>
       <c r="B37" t="n">
-        <v>688.0</v>
+        <v>993.0</v>
       </c>
       <c r="C37" t="n">
-        <v>102.0</v>
+        <v>121.0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="E37" t="n">
-        <v>299.0</v>
+        <v>445.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1102.0</v>
+        <v>1571.0</v>
       </c>
       <c r="B38" t="n">
-        <v>755.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C38" t="n">
-        <v>113.0</v>
+        <v>123.0</v>
       </c>
       <c r="D38" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="E38" t="n">
-        <v>344.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1216.0</v>
+        <v>1699.0</v>
       </c>
       <c r="B39" t="n">
-        <v>836.0</v>
+        <v>1155.0</v>
       </c>
       <c r="C39" t="n">
-        <v>114.0</v>
+        <v>128.0</v>
       </c>
       <c r="D39" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="E39" t="n">
-        <v>377.0</v>
+        <v>532.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1357.0</v>
+        <v>1827.0</v>
       </c>
       <c r="B40" t="n">
-        <v>934.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C40" t="n">
-        <v>141.0</v>
+        <v>128.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E40" t="n">
-        <v>419.0</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1512.0</v>
+        <v>1964.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1053.0</v>
+        <v>1317.0</v>
       </c>
       <c r="C41" t="n">
-        <v>155.0</v>
+        <v>137.0</v>
       </c>
       <c r="D41" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="E41" t="n">
-        <v>455.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1699.0</v>
+        <v>2145.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1181.0</v>
+        <v>1445.0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.0</v>
+        <v>181.0</v>
       </c>
       <c r="D42" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="E42" t="n">
-        <v>513.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1884.0</v>
+        <v>2330.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1318.0</v>
+        <v>1551.0</v>
       </c>
       <c r="C43" t="n">
         <v>185.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="E43" t="n">
-        <v>561.0</v>
+        <v>764.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2085.0</v>
+        <v>2524.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1459.0</v>
+        <v>1658.0</v>
       </c>
       <c r="C44" t="n">
-        <v>201.0</v>
+        <v>194.0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="E44" t="n">
-        <v>620.0</v>
+        <v>850.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2325.0</v>
+        <v>2715.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1630.0</v>
+        <v>1789.0</v>
       </c>
       <c r="C45" t="n">
-        <v>240.0</v>
+        <v>191.0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="E45" t="n">
-        <v>688.0</v>
+        <v>908.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2601.0</v>
+        <v>2896.0</v>
       </c>
       <c r="B46" t="n">
-        <v>1830.0</v>
+        <v>1888.0</v>
       </c>
       <c r="C46" t="n">
-        <v>276.0</v>
+        <v>181.0</v>
       </c>
       <c r="D46" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="E46" t="n">
-        <v>763.0</v>
+        <v>988.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2863.0</v>
+        <v>3125.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2009.0</v>
+        <v>2032.0</v>
       </c>
       <c r="C47" t="n">
-        <v>262.0</v>
+        <v>229.0</v>
       </c>
       <c r="D47" t="n">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="E47" t="n">
-        <v>844.0</v>
+        <v>1070.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3152.0</v>
+        <v>3379.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2209.0</v>
+        <v>2200.0</v>
       </c>
       <c r="C48" t="n">
-        <v>289.0</v>
+        <v>254.0</v>
       </c>
       <c r="D48" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="E48" t="n">
-        <v>932.0</v>
+        <v>1156.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3524.0</v>
+        <v>3672.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2475.0</v>
+        <v>2398.0</v>
       </c>
       <c r="C49" t="n">
-        <v>372.0</v>
+        <v>293.0</v>
       </c>
       <c r="D49" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1037.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3911.0</v>
+        <v>3966.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2755.0</v>
+        <v>2582.0</v>
       </c>
       <c r="C50" t="n">
-        <v>387.0</v>
+        <v>294.0</v>
       </c>
       <c r="D50" t="n">
-        <v>14.0</v>
+        <v>28.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1142.0</v>
+        <v>1356.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4363.0</v>
+        <v>4282.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3054.0</v>
+        <v>2797.0</v>
       </c>
       <c r="C51" t="n">
-        <v>452.0</v>
+        <v>316.0</v>
       </c>
       <c r="D51" t="n">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1294.0</v>
+        <v>1455.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4769.0</v>
+        <v>4636.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3298.0</v>
+        <v>3022.0</v>
       </c>
       <c r="C52" t="n">
-        <v>406.0</v>
+        <v>354.0</v>
       </c>
       <c r="D52" t="n">
-        <v>17.0</v>
+        <v>36.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1454.0</v>
+        <v>1578.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5224.0</v>
+        <v>5010.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3590.0</v>
+        <v>3226.0</v>
       </c>
       <c r="C53" t="n">
-        <v>455.0</v>
+        <v>374.0</v>
       </c>
       <c r="D53" t="n">
-        <v>22.0</v>
+        <v>46.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1612.0</v>
+        <v>1738.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5762.0</v>
+        <v>5422.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3959.0</v>
+        <v>3480.0</v>
       </c>
       <c r="C54" t="n">
-        <v>538.0</v>
+        <v>412.0</v>
       </c>
       <c r="D54" t="n">
-        <v>26.0</v>
+        <v>51.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1777.0</v>
+        <v>1891.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6346.0</v>
+        <v>5845.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4319.0</v>
+        <v>3736.0</v>
       </c>
       <c r="C55" t="n">
-        <v>584.0</v>
+        <v>423.0</v>
       </c>
       <c r="D55" t="n">
-        <v>27.0</v>
+        <v>52.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2000.0</v>
+        <v>2057.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6978.0</v>
+        <v>6351.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4740.0</v>
+        <v>4060.0</v>
       </c>
       <c r="C56" t="n">
-        <v>632.0</v>
+        <v>506.0</v>
       </c>
       <c r="D56" t="n">
-        <v>30.0</v>
+        <v>55.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2208.0</v>
+        <v>2236.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7663.0</v>
+        <v>6815.0</v>
       </c>
       <c r="B57" t="n">
-        <v>5170.0</v>
+        <v>4348.0</v>
       </c>
       <c r="C57" t="n">
-        <v>685.0</v>
+        <v>464.0</v>
       </c>
       <c r="D57" t="n">
-        <v>32.0</v>
+        <v>61.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2461.0</v>
+        <v>2406.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8344.0</v>
+        <v>7291.0</v>
       </c>
       <c r="B58" t="n">
-        <v>5556.0</v>
+        <v>4589.0</v>
       </c>
       <c r="C58" t="n">
-        <v>681.0</v>
+        <v>476.0</v>
       </c>
       <c r="D58" t="n">
-        <v>38.0</v>
+        <v>67.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2750.0</v>
+        <v>2635.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9079.0</v>
+        <v>7857.0</v>
       </c>
       <c r="B59" t="n">
-        <v>5992.0</v>
+        <v>4907.0</v>
       </c>
       <c r="C59" t="n">
-        <v>735.0</v>
+        <v>566.0</v>
       </c>
       <c r="D59" t="n">
-        <v>39.0</v>
+        <v>73.0</v>
       </c>
       <c r="E59" t="n">
-        <v>3048.0</v>
+        <v>2877.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9940.0</v>
+        <v>8416.0</v>
       </c>
       <c r="B60" t="n">
-        <v>6515.0</v>
+        <v>5225.0</v>
       </c>
       <c r="C60" t="n">
-        <v>861.0</v>
+        <v>559.0</v>
       </c>
       <c r="D60" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3376.0</v>
+        <v>3114.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10864.0</v>
+        <v>9010.0</v>
       </c>
       <c r="B61" t="n">
-        <v>7052.0</v>
+        <v>5563.0</v>
       </c>
       <c r="C61" t="n">
-        <v>924.0</v>
+        <v>594.0</v>
       </c>
       <c r="D61" t="n">
-        <v>53.0</v>
+        <v>81.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3759.0</v>
+        <v>3366.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11806.0</v>
+        <v>9641.0</v>
       </c>
       <c r="B62" t="n">
-        <v>7598.0</v>
+        <v>5904.0</v>
       </c>
       <c r="C62" t="n">
-        <v>942.0</v>
+        <v>631.0</v>
       </c>
       <c r="D62" t="n">
-        <v>60.0</v>
+        <v>85.0</v>
       </c>
       <c r="E62" t="n">
-        <v>4148.0</v>
+        <v>3652.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results9.xlsx
+++ b/src/output/results9.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="B1" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82.0</v>
+        <v>313.0</v>
       </c>
       <c r="B2" t="n">
-        <v>82.0</v>
+        <v>313.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>83.0</v>
+        <v>331.0</v>
       </c>
       <c r="B3" t="n">
-        <v>83.0</v>
+        <v>331.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87.0</v>
+        <v>353.0</v>
       </c>
       <c r="B4" t="n">
-        <v>87.0</v>
+        <v>353.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>92.0</v>
+        <v>372.0</v>
       </c>
       <c r="B5" t="n">
-        <v>92.0</v>
+        <v>372.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104.0</v>
+        <v>409.0</v>
       </c>
       <c r="B6" t="n">
-        <v>104.0</v>
+        <v>409.0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>37.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,954 +448,2263 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118.0</v>
+        <v>441.0</v>
       </c>
       <c r="B7" t="n">
-        <v>118.0</v>
+        <v>440.0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>127.0</v>
+        <v>468.0</v>
       </c>
       <c r="B8" t="n">
-        <v>127.0</v>
+        <v>467.0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>137.0</v>
+        <v>506.0</v>
       </c>
       <c r="B9" t="n">
-        <v>136.0</v>
+        <v>503.0</v>
       </c>
       <c r="C9" t="n">
-        <v>10.0</v>
+        <v>38.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>148.0</v>
+        <v>538.0</v>
       </c>
       <c r="B10" t="n">
-        <v>147.0</v>
+        <v>531.0</v>
       </c>
       <c r="C10" t="n">
-        <v>11.0</v>
+        <v>32.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>159.0</v>
+        <v>577.0</v>
       </c>
       <c r="B11" t="n">
-        <v>157.0</v>
+        <v>565.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>173.0</v>
+        <v>631.0</v>
       </c>
       <c r="B12" t="n">
-        <v>169.0</v>
+        <v>615.0</v>
       </c>
       <c r="C12" t="n">
-        <v>14.0</v>
+        <v>54.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>192.0</v>
+        <v>669.0</v>
       </c>
       <c r="B13" t="n">
-        <v>185.0</v>
+        <v>646.0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.0</v>
+        <v>38.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>208.0</v>
+        <v>736.0</v>
       </c>
       <c r="B14" t="n">
-        <v>199.0</v>
+        <v>703.0</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0</v>
+        <v>67.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>227.0</v>
+        <v>788.0</v>
       </c>
       <c r="B15" t="n">
-        <v>214.0</v>
+        <v>744.0</v>
       </c>
       <c r="C15" t="n">
-        <v>19.0</v>
+        <v>52.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>245.0</v>
+        <v>852.0</v>
       </c>
       <c r="B16" t="n">
-        <v>228.0</v>
+        <v>793.0</v>
       </c>
       <c r="C16" t="n">
-        <v>18.0</v>
+        <v>64.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>270.0</v>
+        <v>922.0</v>
       </c>
       <c r="B17" t="n">
-        <v>250.0</v>
+        <v>844.0</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0</v>
+        <v>70.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>20.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>290.0</v>
+        <v>982.0</v>
       </c>
       <c r="B18" t="n">
-        <v>263.0</v>
+        <v>883.0</v>
       </c>
       <c r="C18" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E18" t="n">
-        <v>27.0</v>
+        <v>97.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>324.0</v>
+        <v>1090.0</v>
       </c>
       <c r="B19" t="n">
-        <v>287.0</v>
+        <v>971.0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.0</v>
+        <v>108.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E19" t="n">
-        <v>37.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>353.0</v>
+        <v>1174.0</v>
       </c>
       <c r="B20" t="n">
-        <v>307.0</v>
+        <v>1029.0</v>
       </c>
       <c r="C20" t="n">
-        <v>29.0</v>
+        <v>84.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E20" t="n">
-        <v>46.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>390.0</v>
+        <v>1272.0</v>
       </c>
       <c r="B21" t="n">
-        <v>333.0</v>
+        <v>1094.0</v>
       </c>
       <c r="C21" t="n">
-        <v>37.0</v>
+        <v>98.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E21" t="n">
-        <v>57.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>419.0</v>
+        <v>1384.0</v>
       </c>
       <c r="B22" t="n">
-        <v>351.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C22" t="n">
-        <v>29.0</v>
+        <v>112.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E22" t="n">
-        <v>67.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>461.0</v>
+        <v>1507.0</v>
       </c>
       <c r="B23" t="n">
-        <v>386.0</v>
+        <v>1248.0</v>
       </c>
       <c r="C23" t="n">
-        <v>42.0</v>
+        <v>123.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n">
-        <v>74.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>514.0</v>
+        <v>1627.0</v>
       </c>
       <c r="B24" t="n">
-        <v>422.0</v>
+        <v>1332.0</v>
       </c>
       <c r="C24" t="n">
-        <v>53.0</v>
+        <v>120.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>90.0</v>
+        <v>291.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>563.0</v>
+        <v>1748.0</v>
       </c>
       <c r="B25" t="n">
-        <v>455.0</v>
+        <v>1400.0</v>
       </c>
       <c r="C25" t="n">
-        <v>49.0</v>
+        <v>121.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n">
-        <v>106.0</v>
+        <v>342.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>614.0</v>
+        <v>1865.0</v>
       </c>
       <c r="B26" t="n">
-        <v>486.0</v>
+        <v>1475.0</v>
       </c>
       <c r="C26" t="n">
-        <v>51.0</v>
+        <v>117.0</v>
       </c>
       <c r="D26" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" t="n">
-        <v>124.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>655.0</v>
+        <v>1984.0</v>
       </c>
       <c r="B27" t="n">
-        <v>511.0</v>
+        <v>1549.0</v>
       </c>
       <c r="C27" t="n">
-        <v>41.0</v>
+        <v>119.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E27" t="n">
-        <v>139.0</v>
+        <v>429.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>712.0</v>
+        <v>2142.0</v>
       </c>
       <c r="B28" t="n">
-        <v>545.0</v>
+        <v>1646.0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.0</v>
+        <v>158.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E28" t="n">
-        <v>162.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>770.0</v>
+        <v>2287.0</v>
       </c>
       <c r="B29" t="n">
-        <v>585.0</v>
+        <v>1716.0</v>
       </c>
       <c r="C29" t="n">
-        <v>58.0</v>
+        <v>145.0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E29" t="n">
-        <v>180.0</v>
+        <v>564.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>846.0</v>
+        <v>2407.0</v>
       </c>
       <c r="B30" t="n">
-        <v>638.0</v>
+        <v>1755.0</v>
       </c>
       <c r="C30" t="n">
-        <v>76.0</v>
+        <v>120.0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E30" t="n">
-        <v>203.0</v>
+        <v>645.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>906.0</v>
+        <v>2561.0</v>
       </c>
       <c r="B31" t="n">
-        <v>677.0</v>
+        <v>1822.0</v>
       </c>
       <c r="C31" t="n">
-        <v>60.0</v>
+        <v>154.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n">
-        <v>224.0</v>
+        <v>732.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>966.0</v>
+        <v>2720.0</v>
       </c>
       <c r="B32" t="n">
-        <v>706.0</v>
+        <v>1905.0</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0</v>
+        <v>159.0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E32" t="n">
-        <v>255.0</v>
+        <v>807.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1047.0</v>
+        <v>2870.0</v>
       </c>
       <c r="B33" t="n">
-        <v>749.0</v>
+        <v>1965.0</v>
       </c>
       <c r="C33" t="n">
-        <v>81.0</v>
+        <v>150.0</v>
       </c>
       <c r="D33" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E33" t="n">
-        <v>292.0</v>
+        <v>896.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1121.0</v>
+        <v>3033.0</v>
       </c>
       <c r="B34" t="n">
-        <v>780.0</v>
+        <v>2034.0</v>
       </c>
       <c r="C34" t="n">
-        <v>74.0</v>
+        <v>163.0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="E34" t="n">
-        <v>335.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1225.0</v>
+        <v>3213.0</v>
       </c>
       <c r="B35" t="n">
-        <v>853.0</v>
+        <v>2104.0</v>
       </c>
       <c r="C35" t="n">
-        <v>104.0</v>
+        <v>180.0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>365.0</v>
+        <v>1097.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1327.0</v>
+        <v>3388.0</v>
       </c>
       <c r="B36" t="n">
-        <v>919.0</v>
+        <v>2172.0</v>
       </c>
       <c r="C36" t="n">
-        <v>102.0</v>
+        <v>175.0</v>
       </c>
       <c r="D36" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="E36" t="n">
-        <v>400.0</v>
+        <v>1204.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1448.0</v>
+        <v>3552.0</v>
       </c>
       <c r="B37" t="n">
-        <v>993.0</v>
+        <v>2228.0</v>
       </c>
       <c r="C37" t="n">
-        <v>121.0</v>
+        <v>164.0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="E37" t="n">
-        <v>445.0</v>
+        <v>1312.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1571.0</v>
+        <v>3749.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1071.0</v>
+        <v>2309.0</v>
       </c>
       <c r="C38" t="n">
-        <v>123.0</v>
+        <v>197.0</v>
       </c>
       <c r="D38" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E38" t="n">
-        <v>489.0</v>
+        <v>1427.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1699.0</v>
+        <v>3965.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1155.0</v>
+        <v>2390.0</v>
       </c>
       <c r="C39" t="n">
-        <v>128.0</v>
+        <v>216.0</v>
       </c>
       <c r="D39" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="E39" t="n">
-        <v>532.0</v>
+        <v>1561.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1827.0</v>
+        <v>4179.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1238.0</v>
+        <v>2475.0</v>
       </c>
       <c r="C40" t="n">
-        <v>128.0</v>
+        <v>214.0</v>
       </c>
       <c r="D40" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="E40" t="n">
-        <v>575.0</v>
+        <v>1686.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1964.0</v>
+        <v>4420.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1317.0</v>
+        <v>2602.0</v>
       </c>
       <c r="C41" t="n">
-        <v>137.0</v>
+        <v>241.0</v>
       </c>
       <c r="D41" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="E41" t="n">
-        <v>633.0</v>
+        <v>1799.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2145.0</v>
+        <v>4666.0</v>
       </c>
       <c r="B42" t="n">
-        <v>1445.0</v>
+        <v>2717.0</v>
       </c>
       <c r="C42" t="n">
-        <v>181.0</v>
+        <v>246.0</v>
       </c>
       <c r="D42" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="E42" t="n">
-        <v>686.0</v>
+        <v>1930.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2330.0</v>
+        <v>4932.0</v>
       </c>
       <c r="B43" t="n">
-        <v>1551.0</v>
+        <v>2825.0</v>
       </c>
       <c r="C43" t="n">
-        <v>185.0</v>
+        <v>266.0</v>
       </c>
       <c r="D43" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="E43" t="n">
-        <v>764.0</v>
+        <v>2084.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2524.0</v>
+        <v>5241.0</v>
       </c>
       <c r="B44" t="n">
-        <v>1658.0</v>
+        <v>2986.0</v>
       </c>
       <c r="C44" t="n">
-        <v>194.0</v>
+        <v>309.0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="E44" t="n">
-        <v>850.0</v>
+        <v>2229.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2715.0</v>
+        <v>5578.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1789.0</v>
+        <v>3159.0</v>
       </c>
       <c r="C45" t="n">
-        <v>191.0</v>
+        <v>337.0</v>
       </c>
       <c r="D45" t="n">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="E45" t="n">
-        <v>908.0</v>
+        <v>2391.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2896.0</v>
+        <v>5982.0</v>
       </c>
       <c r="B46" t="n">
-        <v>1888.0</v>
+        <v>3385.0</v>
       </c>
       <c r="C46" t="n">
-        <v>181.0</v>
+        <v>404.0</v>
       </c>
       <c r="D46" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E46" t="n">
-        <v>988.0</v>
+        <v>2567.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3125.0</v>
+        <v>6387.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2032.0</v>
+        <v>3628.0</v>
       </c>
       <c r="C47" t="n">
-        <v>229.0</v>
+        <v>405.0</v>
       </c>
       <c r="D47" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1070.0</v>
+        <v>2727.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3379.0</v>
+        <v>6798.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2200.0</v>
+        <v>3880.0</v>
       </c>
       <c r="C48" t="n">
-        <v>254.0</v>
+        <v>411.0</v>
       </c>
       <c r="D48" t="n">
-        <v>23.0</v>
+        <v>33.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1156.0</v>
+        <v>2885.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3672.0</v>
+        <v>7238.0</v>
       </c>
       <c r="B49" t="n">
-        <v>2398.0</v>
+        <v>4141.0</v>
       </c>
       <c r="C49" t="n">
-        <v>293.0</v>
+        <v>440.0</v>
       </c>
       <c r="D49" t="n">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1250.0</v>
+        <v>3062.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3966.0</v>
+        <v>7712.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2582.0</v>
+        <v>4407.0</v>
       </c>
       <c r="C50" t="n">
-        <v>294.0</v>
+        <v>474.0</v>
       </c>
       <c r="D50" t="n">
-        <v>28.0</v>
+        <v>37.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1356.0</v>
+        <v>3268.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4282.0</v>
+        <v>8199.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2797.0</v>
+        <v>4688.0</v>
       </c>
       <c r="C51" t="n">
-        <v>316.0</v>
+        <v>487.0</v>
       </c>
       <c r="D51" t="n">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1455.0</v>
+        <v>3473.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4636.0</v>
+        <v>8784.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3022.0</v>
+        <v>5084.0</v>
       </c>
       <c r="C52" t="n">
-        <v>354.0</v>
+        <v>585.0</v>
       </c>
       <c r="D52" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1578.0</v>
+        <v>3662.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5010.0</v>
+        <v>9416.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3226.0</v>
+        <v>5531.0</v>
       </c>
       <c r="C53" t="n">
-        <v>374.0</v>
+        <v>632.0</v>
       </c>
       <c r="D53" t="n">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1738.0</v>
+        <v>3844.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5422.0</v>
+        <v>10106.0</v>
       </c>
       <c r="B54" t="n">
-        <v>3480.0</v>
+        <v>5956.0</v>
       </c>
       <c r="C54" t="n">
-        <v>412.0</v>
+        <v>690.0</v>
       </c>
       <c r="D54" t="n">
-        <v>51.0</v>
+        <v>45.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1891.0</v>
+        <v>4105.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5845.0</v>
+        <v>10766.0</v>
       </c>
       <c r="B55" t="n">
-        <v>3736.0</v>
+        <v>6334.0</v>
       </c>
       <c r="C55" t="n">
-        <v>423.0</v>
+        <v>660.0</v>
       </c>
       <c r="D55" t="n">
-        <v>52.0</v>
+        <v>46.0</v>
       </c>
       <c r="E55" t="n">
-        <v>2057.0</v>
+        <v>4386.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6351.0</v>
+        <v>11502.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4060.0</v>
+        <v>6779.0</v>
       </c>
       <c r="C56" t="n">
-        <v>506.0</v>
+        <v>736.0</v>
       </c>
       <c r="D56" t="n">
-        <v>55.0</v>
+        <v>49.0</v>
       </c>
       <c r="E56" t="n">
-        <v>2236.0</v>
+        <v>4674.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6815.0</v>
+        <v>12239.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4348.0</v>
+        <v>7227.0</v>
       </c>
       <c r="C57" t="n">
-        <v>464.0</v>
+        <v>737.0</v>
       </c>
       <c r="D57" t="n">
-        <v>61.0</v>
+        <v>51.0</v>
       </c>
       <c r="E57" t="n">
-        <v>2406.0</v>
+        <v>4961.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7291.0</v>
+        <v>13090.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4589.0</v>
+        <v>7728.0</v>
       </c>
       <c r="C58" t="n">
-        <v>476.0</v>
+        <v>851.0</v>
       </c>
       <c r="D58" t="n">
-        <v>67.0</v>
+        <v>53.0</v>
       </c>
       <c r="E58" t="n">
-        <v>2635.0</v>
+        <v>5309.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7857.0</v>
+        <v>13928.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4907.0</v>
+        <v>8155.0</v>
       </c>
       <c r="C59" t="n">
-        <v>566.0</v>
+        <v>838.0</v>
       </c>
       <c r="D59" t="n">
-        <v>73.0</v>
+        <v>56.0</v>
       </c>
       <c r="E59" t="n">
-        <v>2877.0</v>
+        <v>5717.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8416.0</v>
+        <v>14793.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5225.0</v>
+        <v>8628.0</v>
       </c>
       <c r="C60" t="n">
-        <v>559.0</v>
+        <v>865.0</v>
       </c>
       <c r="D60" t="n">
-        <v>77.0</v>
+        <v>61.0</v>
       </c>
       <c r="E60" t="n">
-        <v>3114.0</v>
+        <v>6104.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9010.0</v>
+        <v>15674.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5563.0</v>
+        <v>9052.0</v>
       </c>
       <c r="C61" t="n">
-        <v>594.0</v>
+        <v>881.0</v>
       </c>
       <c r="D61" t="n">
-        <v>81.0</v>
+        <v>66.0</v>
       </c>
       <c r="E61" t="n">
-        <v>3366.0</v>
+        <v>6556.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9641.0</v>
+        <v>16682.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5904.0</v>
+        <v>9603.0</v>
       </c>
       <c r="C62" t="n">
-        <v>631.0</v>
+        <v>1008.0</v>
       </c>
       <c r="D62" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>7011.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17679.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10095.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>997.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7511.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>18788.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10667.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1109.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8042.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>19937.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>11235.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1149.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8621.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21173.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>11886.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1236.0</v>
+      </c>
+      <c r="D66" t="n">
         <v>85.0</v>
       </c>
-      <c r="E62" t="n">
-        <v>3652.0</v>
+      <c r="E66" t="n">
+        <v>9202.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2865.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1098.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1736.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2945.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1793.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3050.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1154.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1862.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3142.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1172.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1935.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3232.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1199.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1997.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3331.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1236.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2059.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3464.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1304.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2124.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3565.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1339.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2188.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3685.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1387.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2259.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3794.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1436.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2318.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3926.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1489.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2396.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4050.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1527.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2480.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4190.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1575.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2572.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4337.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1634.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2658.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>4487.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1690.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2749.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>4629.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1742.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2839.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>4788.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1812.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2926.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>4945.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1859.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3035.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5132.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1954.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3125.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5312.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3240.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5492.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2090.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3345.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5659.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2148.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3453.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5848.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2214.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3571.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6049.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2290.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3695.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6253.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2370.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3817.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6439.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2381.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3988.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6662.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2457.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4133.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>6903.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2559.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4268.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7118.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2626.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4413.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7351.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2717.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4549.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>7568.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2765.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4716.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>7820.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2863.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4867.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>8093.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2969.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>5032.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>8365.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3083.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5188.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>8650.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3184.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>5369.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>8903.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3235.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5562.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>9144.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3259.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5777.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>9421.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3348.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5963.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>9702.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3401.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>281.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6189.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>9979.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3452.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6411.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10220.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3477.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6625.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10518.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3560.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>298.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6836.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10790.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3609.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7055.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>11108.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3695.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7287.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>11426.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3758.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>318.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7538.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11730.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3802.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7789.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>12051.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3863.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>8046.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>12375.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3935.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>324.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>8296.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>12700.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4028.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>325.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>8524.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>13027.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4104.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>327.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>8774.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>13369.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4182.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>342.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9037.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>13734.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4297.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>365.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9284.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>14094.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4376.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9561.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>14488.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4500.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9827.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>14895.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4642.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>10084.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>15327.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4777.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10375.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>15748.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4911.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10656.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>16185.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5061.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>10939.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>16686.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5260.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>501.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11238.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>17154.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5406.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11553.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>17654.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5574.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11882.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>18139.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5714.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>485.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12221.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>18649.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5859.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12584.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>19191.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12976.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>19760.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6187.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>569.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13357.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>20338.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6371.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>219.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>13748.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20914.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6560.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14129.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>21512.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6757.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>598.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14525.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>22109.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6934.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14939.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>22748.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7104.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>639.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15402.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>23429.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7370.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15809.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>24124.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7600.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>695.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16266.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>24831.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>7853.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>707.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>262.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16716.0</v>
       </c>
     </row>
   </sheetData>
